--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -500,7 +500,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -510,6 +510,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,7 +571,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -641,6 +647,21 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4251,11 +4272,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="28.21875" customWidth="1"/>
+    <col min="3" max="3" width="23.77734375" customWidth="1"/>
+    <col min="4" max="4" width="26.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
@@ -6891,50 +6917,50 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:28" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
+    <row r="57" spans="1:28" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A57" s="25">
         <v>53</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="D57" s="11" t="s">
+      <c r="D57" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="E57" s="3"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1">
-        <v>11</v>
-      </c>
-      <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
-      <c r="L57" s="1"/>
-      <c r="M57" s="1"/>
-      <c r="N57" s="20">
+      <c r="E57" s="27"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="25">
+        <v>11</v>
+      </c>
+      <c r="J57" s="25"/>
+      <c r="K57" s="25"/>
+      <c r="L57" s="25"/>
+      <c r="M57" s="25"/>
+      <c r="N57" s="28">
         <v>660</v>
       </c>
-      <c r="O57" s="21">
+      <c r="O57" s="25">
         <v>600</v>
       </c>
-      <c r="P57" s="21">
+      <c r="P57" s="25">
         <v>60</v>
       </c>
-      <c r="Q57" s="21">
+      <c r="Q57" s="25">
         <v>45</v>
       </c>
-      <c r="R57" s="1"/>
-      <c r="S57" s="1"/>
-      <c r="T57" s="1"/>
-      <c r="U57" s="1"/>
-      <c r="V57" s="1"/>
-      <c r="W57" s="11"/>
-      <c r="X57" s="11"/>
-      <c r="AB57">
+      <c r="R57" s="25"/>
+      <c r="S57" s="25"/>
+      <c r="T57" s="25"/>
+      <c r="U57" s="25"/>
+      <c r="V57" s="25"/>
+      <c r="W57" s="26"/>
+      <c r="X57" s="26"/>
+      <c r="AB57" s="29">
         <v>1</v>
       </c>
     </row>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="11520" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="4" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="136">
   <si>
     <t>actionname</t>
   </si>
@@ -396,13 +397,76 @@
   </si>
   <si>
     <t>丢8连管</t>
+  </si>
+  <si>
+    <t>特殊DP1移管</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>DP1MovePipe_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Spacial()</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>取Tip头，加样本液4，退Tip头</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>开盖</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpenLid()</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>除醇</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>DP1MovePipe()</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>样本装载位指定位置</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pace_E</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -499,8 +563,55 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -516,6 +627,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -571,7 +688,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -662,6 +779,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -937,8 +1075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB73"/>
   <sheetViews>
-    <sheetView topLeftCell="R40" workbookViewId="0">
-      <selection sqref="A1:AB65"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -4272,15 +4410,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="H56" sqref="H56"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="28.21875" customWidth="1"/>
-    <col min="3" max="3" width="23.77734375" customWidth="1"/>
-    <col min="4" max="4" width="26.88671875" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" customWidth="1"/>
+    <col min="4" max="4" width="33.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.109375" customWidth="1"/>
+    <col min="12" max="12" width="10.44140625" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" customWidth="1"/>
+    <col min="14" max="14" width="17.88671875" customWidth="1"/>
+    <col min="15" max="15" width="5.109375" customWidth="1"/>
+    <col min="16" max="16" width="3.5546875" customWidth="1"/>
+    <col min="17" max="17" width="5.88671875" customWidth="1"/>
+    <col min="18" max="18" width="11.21875" customWidth="1"/>
+    <col min="19" max="19" width="15.5546875" customWidth="1"/>
+    <col min="20" max="20" width="12.6640625" customWidth="1"/>
+    <col min="21" max="21" width="13.21875" customWidth="1"/>
+    <col min="22" max="22" width="15.44140625" customWidth="1"/>
+    <col min="23" max="23" width="31.44140625" customWidth="1"/>
+    <col min="24" max="24" width="38.5546875" customWidth="1"/>
+    <col min="25" max="25" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="15.6" x14ac:dyDescent="0.25">
@@ -4414,7 +4573,9 @@
       <c r="L3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="6"/>
+      <c r="M3" s="36" t="s">
+        <v>135</v>
+      </c>
       <c r="N3" s="18" t="s">
         <v>29</v>
       </c>
@@ -4485,7 +4646,9 @@
       <c r="L4" s="6">
         <v>1</v>
       </c>
-      <c r="M4" s="1"/>
+      <c r="M4" s="36">
+        <v>1</v>
+      </c>
       <c r="N4" s="20"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -4505,11 +4668,11 @@
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>42</v>
+      <c r="B5" s="30" t="s">
+        <v>128</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>43</v>
+        <v>127</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>44</v>
@@ -4528,7 +4691,9 @@
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
+      <c r="M5" s="1">
+        <v>21</v>
+      </c>
       <c r="N5" s="20">
         <v>30</v>
       </c>
@@ -4540,10 +4705,10 @@
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
-      <c r="W5" s="1" t="s">
+      <c r="W5" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="X5" s="12" t="s">
+      <c r="X5" s="32" t="s">
         <v>46</v>
       </c>
       <c r="AB5">
@@ -4571,7 +4736,9 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
+      <c r="M6" s="1">
+        <v>11</v>
+      </c>
       <c r="N6" s="20">
         <v>60</v>
       </c>
@@ -4614,7 +4781,9 @@
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
+      <c r="M7" s="1">
+        <v>11</v>
+      </c>
       <c r="N7" s="20">
         <v>40</v>
       </c>
@@ -4671,7 +4840,9 @@
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
+      <c r="M8" s="1">
+        <v>11</v>
+      </c>
       <c r="N8" s="20">
         <v>5</v>
       </c>
@@ -4714,7 +4885,9 @@
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
+      <c r="M9" s="1">
+        <v>11</v>
+      </c>
       <c r="N9" s="20">
         <v>40</v>
       </c>
@@ -4771,7 +4944,9 @@
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
+      <c r="M10" s="1">
+        <v>11</v>
+      </c>
       <c r="N10" s="20">
         <v>5</v>
       </c>
@@ -4814,7 +4989,9 @@
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
+      <c r="M11" s="1">
+        <v>11</v>
+      </c>
       <c r="N11" s="20">
         <v>40</v>
       </c>
@@ -4871,7 +5048,9 @@
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
+      <c r="M12" s="1">
+        <v>11</v>
+      </c>
       <c r="N12" s="20">
         <v>5</v>
       </c>
@@ -4914,7 +5093,9 @@
       </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
+      <c r="M13" s="1">
+        <v>11</v>
+      </c>
       <c r="N13" s="20">
         <v>40</v>
       </c>
@@ -4967,11 +5148,13 @@
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
+      <c r="M14" s="1">
+        <v>12</v>
+      </c>
       <c r="N14" s="20">
         <v>5</v>
       </c>
@@ -5010,7 +5193,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -5040,8 +5223,8 @@
       <c r="A16" s="1">
         <v>12</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>42</v>
+      <c r="B16" s="30" t="s">
+        <v>133</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>67</v>
@@ -5071,8 +5254,8 @@
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
-      <c r="W16" s="1" t="s">
-        <v>69</v>
+      <c r="W16" s="35" t="s">
+        <v>134</v>
       </c>
       <c r="X16" s="1" t="s">
         <v>70</v>
@@ -5147,7 +5330,9 @@
       <c r="L18" s="1">
         <v>11</v>
       </c>
-      <c r="M18" s="1"/>
+      <c r="M18" s="1">
+        <v>22</v>
+      </c>
       <c r="N18" s="20">
         <v>50</v>
       </c>
@@ -5256,7 +5441,7 @@
       <c r="W20" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="X20" s="1" t="s">
+      <c r="X20" s="33" t="s">
         <v>69</v>
       </c>
       <c r="AB20">
@@ -5300,7 +5485,7 @@
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
-      <c r="W21" s="1" t="s">
+      <c r="W21" s="33" t="s">
         <v>69</v>
       </c>
       <c r="X21" s="1" t="s">
@@ -5376,7 +5561,9 @@
       <c r="L23" s="1">
         <v>11</v>
       </c>
-      <c r="M23" s="1"/>
+      <c r="M23" s="1">
+        <v>22</v>
+      </c>
       <c r="N23" s="20">
         <v>50</v>
       </c>
@@ -5485,7 +5672,7 @@
       <c r="W25" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="X25" s="1" t="s">
+      <c r="X25" s="33" t="s">
         <v>69</v>
       </c>
       <c r="AB25">
@@ -5529,7 +5716,7 @@
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
-      <c r="W26" s="1" t="s">
+      <c r="W26" s="33" t="s">
         <v>69</v>
       </c>
       <c r="X26" s="1" t="s">
@@ -5605,7 +5792,9 @@
       <c r="L28" s="1">
         <v>11</v>
       </c>
-      <c r="M28" s="1"/>
+      <c r="M28" s="1">
+        <v>22</v>
+      </c>
       <c r="N28" s="20">
         <v>50</v>
       </c>
@@ -5714,7 +5903,7 @@
       <c r="W30" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="X30" s="1" t="s">
+      <c r="X30" s="33" t="s">
         <v>69</v>
       </c>
       <c r="AB30">
@@ -5758,7 +5947,7 @@
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
-      <c r="W31" s="1" t="s">
+      <c r="W31" s="33" t="s">
         <v>69</v>
       </c>
       <c r="X31" s="1" t="s">
@@ -5773,13 +5962,13 @@
         <v>28</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>71</v>
+        <v>131</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D32" s="11" t="s">
-        <v>72</v>
+      <c r="D32" s="31" t="s">
+        <v>130</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="1"/>
@@ -5819,8 +6008,8 @@
       <c r="C33" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D33" s="11" t="s">
-        <v>87</v>
+      <c r="D33" s="31" t="s">
+        <v>129</v>
       </c>
       <c r="E33" s="3">
         <v>22</v>
@@ -5834,7 +6023,9 @@
       <c r="L33" s="1">
         <v>11</v>
       </c>
-      <c r="M33" s="1"/>
+      <c r="M33" s="1">
+        <v>22</v>
+      </c>
       <c r="N33" s="20">
         <v>50</v>
       </c>
@@ -5943,7 +6134,7 @@
       <c r="W35" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="X35" s="1" t="s">
+      <c r="X35" s="33" t="s">
         <v>69</v>
       </c>
       <c r="AB35">
@@ -5987,7 +6178,7 @@
       <c r="T36" s="1"/>
       <c r="U36" s="1"/>
       <c r="V36" s="1"/>
-      <c r="W36" s="1" t="s">
+      <c r="W36" s="33" t="s">
         <v>69</v>
       </c>
       <c r="X36" s="1" t="s">
@@ -6063,7 +6254,9 @@
       <c r="L38" s="1">
         <v>11</v>
       </c>
-      <c r="M38" s="1"/>
+      <c r="M38" s="1">
+        <v>22</v>
+      </c>
       <c r="N38" s="20">
         <v>50</v>
       </c>
@@ -6172,7 +6365,7 @@
       <c r="W40" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="X40" s="1" t="s">
+      <c r="X40" s="33" t="s">
         <v>69</v>
       </c>
       <c r="AB40">
@@ -6216,7 +6409,7 @@
       <c r="T41" s="1"/>
       <c r="U41" s="1"/>
       <c r="V41" s="1"/>
-      <c r="W41" s="1" t="s">
+      <c r="W41" s="33" t="s">
         <v>69</v>
       </c>
       <c r="X41" s="1" t="s">
@@ -6292,7 +6485,9 @@
       <c r="L43" s="1">
         <v>11</v>
       </c>
-      <c r="M43" s="1"/>
+      <c r="M43" s="1">
+        <v>22</v>
+      </c>
       <c r="N43" s="20">
         <v>50</v>
       </c>
@@ -6401,7 +6596,7 @@
       <c r="W45" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="X45" s="1" t="s">
+      <c r="X45" s="33" t="s">
         <v>69</v>
       </c>
       <c r="AB45">
@@ -6445,7 +6640,7 @@
       <c r="T46" s="1"/>
       <c r="U46" s="1"/>
       <c r="V46" s="1"/>
-      <c r="W46" s="1" t="s">
+      <c r="W46" s="33" t="s">
         <v>69</v>
       </c>
       <c r="X46" s="1" t="s">
@@ -6521,7 +6716,9 @@
       <c r="L48" s="1">
         <v>11</v>
       </c>
-      <c r="M48" s="1"/>
+      <c r="M48" s="1">
+        <v>22</v>
+      </c>
       <c r="N48" s="20">
         <v>50</v>
       </c>
@@ -6630,7 +6827,7 @@
       <c r="W50" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="X50" s="1" t="s">
+      <c r="X50" s="33" t="s">
         <v>69</v>
       </c>
       <c r="AB50">
@@ -6674,7 +6871,7 @@
       <c r="T51" s="1"/>
       <c r="U51" s="1"/>
       <c r="V51" s="1"/>
-      <c r="W51" s="1" t="s">
+      <c r="W51" s="33" t="s">
         <v>69</v>
       </c>
       <c r="X51" s="1" t="s">
@@ -6750,7 +6947,9 @@
       <c r="L53" s="1">
         <v>11</v>
       </c>
-      <c r="M53" s="1"/>
+      <c r="M53" s="1">
+        <v>22</v>
+      </c>
       <c r="N53" s="20">
         <v>50</v>
       </c>
@@ -6859,7 +7058,7 @@
       <c r="W55" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="X55" s="1" t="s">
+      <c r="X55" s="33" t="s">
         <v>69</v>
       </c>
       <c r="AB55">
@@ -7096,7 +7295,7 @@
       </c>
       <c r="J60" s="1"/>
       <c r="K60" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
@@ -7131,46 +7330,44 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:28" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
+    <row r="61" spans="1:28" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A61" s="25">
         <v>57</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="D61" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="D61" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="E61" s="3"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1">
-        <v>11</v>
-      </c>
-      <c r="J61" s="1"/>
-      <c r="K61" s="1">
-        <v>11</v>
-      </c>
-      <c r="L61" s="1"/>
-      <c r="M61" s="1"/>
-      <c r="N61" s="20">
+      <c r="E61" s="27"/>
+      <c r="F61" s="25"/>
+      <c r="G61" s="25"/>
+      <c r="H61" s="25"/>
+      <c r="I61" s="25">
+        <v>11</v>
+      </c>
+      <c r="J61" s="25"/>
+      <c r="K61" s="25"/>
+      <c r="L61" s="25"/>
+      <c r="M61" s="25"/>
+      <c r="N61" s="28">
         <v>300</v>
       </c>
-      <c r="O61" s="22"/>
-      <c r="P61" s="1"/>
-      <c r="Q61" s="1"/>
-      <c r="R61" s="1"/>
-      <c r="S61" s="1"/>
-      <c r="T61" s="1"/>
-      <c r="U61" s="1"/>
-      <c r="V61" s="1"/>
-      <c r="W61" s="11"/>
-      <c r="X61" s="11"/>
-      <c r="AB61">
+      <c r="O61" s="25"/>
+      <c r="P61" s="25"/>
+      <c r="Q61" s="25"/>
+      <c r="R61" s="25"/>
+      <c r="S61" s="25"/>
+      <c r="T61" s="25"/>
+      <c r="U61" s="25"/>
+      <c r="V61" s="25"/>
+      <c r="W61" s="26"/>
+      <c r="X61" s="26"/>
+      <c r="AB61" s="29">
         <v>1</v>
       </c>
     </row>
@@ -7198,7 +7395,7 @@
       </c>
       <c r="J62" s="1"/>
       <c r="K62" s="1">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
@@ -7250,9 +7447,7 @@
         <v>11</v>
       </c>
       <c r="J63" s="1"/>
-      <c r="K63" s="1">
-        <v>11</v>
-      </c>
+      <c r="K63" s="1"/>
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
       <c r="N63" s="20">
@@ -7296,11 +7491,11 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J64" s="1"/>
       <c r="K64" s="1">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
@@ -7351,11 +7546,11 @@
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="J65" s="1"/>
       <c r="K65" s="1">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
@@ -7381,5 +7576,19 @@
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -4410,8 +4410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K67" sqref="K67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -5326,7 +5326,9 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
+      <c r="K18" s="1">
+        <v>22</v>
+      </c>
       <c r="L18" s="1">
         <v>11</v>
       </c>
@@ -5557,7 +5559,9 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
+      <c r="K23" s="1">
+        <v>22</v>
+      </c>
       <c r="L23" s="1">
         <v>11</v>
       </c>
@@ -5788,7 +5792,9 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
+      <c r="K28" s="1">
+        <v>22</v>
+      </c>
       <c r="L28" s="1">
         <v>11</v>
       </c>
@@ -6019,7 +6025,9 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
+      <c r="K33" s="1">
+        <v>22</v>
+      </c>
       <c r="L33" s="1">
         <v>11</v>
       </c>
@@ -6250,7 +6258,9 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
+      <c r="K38" s="1">
+        <v>22</v>
+      </c>
       <c r="L38" s="1">
         <v>11</v>
       </c>
@@ -6481,7 +6491,9 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
+      <c r="K43" s="1">
+        <v>22</v>
+      </c>
       <c r="L43" s="1">
         <v>11</v>
       </c>
@@ -6712,7 +6724,9 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
+      <c r="K48" s="1">
+        <v>22</v>
+      </c>
       <c r="L48" s="1">
         <v>11</v>
       </c>
@@ -6943,7 +6957,9 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
+      <c r="K53" s="1">
+        <v>22</v>
+      </c>
       <c r="L53" s="1">
         <v>11</v>
       </c>
@@ -7495,7 +7511,7 @@
       </c>
       <c r="J64" s="1"/>
       <c r="K64" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
@@ -7550,7 +7566,7 @@
       </c>
       <c r="J65" s="1"/>
       <c r="K65" s="1">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -15,26 +15,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="140">
-  <si>
-    <t>actionname</t>
-  </si>
-  <si>
-    <t>动作名称</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="141">
   <si>
     <t>动作描述</t>
   </si>
   <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>振荡吸磁</t>
-  </si>
-  <si>
-    <t>移液</t>
-  </si>
-  <si>
     <t>DP1机构</t>
   </si>
   <si>
@@ -92,9 +77,6 @@
     <t>DJ_purify</t>
   </si>
   <si>
-    <t>OSC_location</t>
-  </si>
-  <si>
     <t>space_A</t>
   </si>
   <si>
@@ -140,9 +122,6 @@
     <t>序号</t>
   </si>
   <si>
-    <t>数量</t>
-  </si>
-  <si>
     <t>DP1MovePipe()</t>
   </si>
   <si>
@@ -393,7 +372,7 @@
   </si>
   <si>
     <t>特殊DP1移管</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -410,94 +389,97 @@
       </rPr>
       <t>Spacial()</t>
     </r>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>取Tip头，加样本液4，退Tip头</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>开盖</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>OpenLid()</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>除醇</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>DP1MovePipe()</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>样本装载位指定位置</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>pace_E</t>
-    </r>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>S</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ampleShelf</t>
-    </r>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>试管架</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>提纯试剂区</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>振荡区</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>热封&amp;试管架</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>样品tip区</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>space_E</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>SampleShelf</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>#resourceStart</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>#resourceEnd</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>#parameterStart</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>#duration</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>parameterEnd</t>
+  </si>
+  <si>
+    <t>动作名称</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文名</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>OSC_location</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -526,15 +508,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -639,7 +612,41 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF00B050"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="5"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="5"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -723,7 +730,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -745,22 +752,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -770,22 +768,19 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -797,7 +792,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -809,11 +804,14 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -821,23 +819,41 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1113,8 +1129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1132,32 +1148,24 @@
     <col min="12" max="12" width="16" customWidth="1"/>
     <col min="13" max="13" width="13.6640625" customWidth="1"/>
     <col min="14" max="14" width="17.109375" customWidth="1"/>
-    <col min="15" max="15" width="17.88671875" customWidth="1"/>
-    <col min="16" max="16" width="5.109375" customWidth="1"/>
-    <col min="17" max="17" width="3.5546875" customWidth="1"/>
-    <col min="18" max="18" width="5.88671875" customWidth="1"/>
+    <col min="15" max="16" width="21" customWidth="1"/>
+    <col min="17" max="17" width="17" customWidth="1"/>
+    <col min="18" max="18" width="17.33203125" customWidth="1"/>
     <col min="19" max="19" width="11.21875" customWidth="1"/>
     <col min="20" max="20" width="15.5546875" customWidth="1"/>
     <col min="21" max="21" width="12.6640625" customWidth="1"/>
     <col min="22" max="22" width="13.21875" customWidth="1"/>
     <col min="23" max="23" width="15.44140625" customWidth="1"/>
-    <col min="24" max="24" width="31.44140625" customWidth="1"/>
-    <col min="25" max="25" width="38.5546875" customWidth="1"/>
+    <col min="24" max="24" width="23.6640625" customWidth="1"/>
+    <col min="25" max="25" width="36.77734375" customWidth="1"/>
     <col min="26" max="26" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3"/>
+      <c r="E1" s="37" t="s">
+        <v>133</v>
+      </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -1166,95 +1174,103 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="P1" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="23"/>
+      <c r="N1" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="O1" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="P1" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="19"/>
       <c r="X1" s="2"/>
-      <c r="Y1" s="11"/>
+      <c r="Y1" s="38" t="s">
+        <v>137</v>
+      </c>
       <c r="AC1">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6" t="s">
+      <c r="B2" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="K2" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="L2" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="M2" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="N2" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="O2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="P2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="Q2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="R2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="S2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="O2" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="P2" s="19" t="s">
+      <c r="T2" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="U2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="19" t="s">
+      <c r="V2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="19" t="s">
+      <c r="W2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="19" t="s">
+      <c r="X2" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="T2" s="19" t="s">
+      <c r="Y2" s="20" t="s">
         <v>16</v>
-      </c>
-      <c r="U2" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="V2" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="W2" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="X2" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y2" s="24" t="s">
-        <v>21</v>
       </c>
       <c r="AC2">
         <v>1</v>
@@ -1265,68 +1281,68 @@
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="J3" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="M3" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="N3" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="O3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="8" t="s">
+      <c r="P3" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="Q3" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="R3" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="S3" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="T3" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="36" t="s">
-        <v>133</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="O3" s="18" t="s">
+      <c r="U3" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="P3" s="19" t="s">
+      <c r="V3" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="Q3" s="19" t="s">
+      <c r="W3" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="R3" s="19" t="s">
+      <c r="X3" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="S3" s="19" t="s">
+      <c r="Y3" s="20" t="s">
         <v>33</v>
-      </c>
-      <c r="T3" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="U3" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="V3" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="W3" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="X3" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y3" s="24" t="s">
-        <v>39</v>
       </c>
       <c r="AC3">
         <v>1</v>
@@ -1334,44 +1350,42 @@
     </row>
     <row r="4" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="7">
-        <v>1</v>
-      </c>
-      <c r="F4" s="6">
-        <v>1</v>
-      </c>
-      <c r="G4" s="8">
-        <v>1</v>
-      </c>
-      <c r="H4" s="8">
-        <v>1</v>
-      </c>
-      <c r="I4" s="6">
+      <c r="C4" s="6"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="34">
+        <v>1</v>
+      </c>
+      <c r="F4" s="33">
+        <v>1</v>
+      </c>
+      <c r="G4" s="35">
+        <v>1</v>
+      </c>
+      <c r="H4" s="35">
+        <v>1</v>
+      </c>
+      <c r="I4" s="33">
         <v>5</v>
       </c>
-      <c r="J4" s="6">
-        <v>1</v>
-      </c>
-      <c r="K4" s="6">
-        <v>1</v>
-      </c>
-      <c r="L4" s="6">
-        <v>1</v>
-      </c>
-      <c r="M4" s="36">
-        <v>1</v>
-      </c>
-      <c r="N4" s="36">
-        <v>1</v>
-      </c>
-      <c r="O4" s="20"/>
+      <c r="J4" s="33">
+        <v>1</v>
+      </c>
+      <c r="K4" s="33">
+        <v>1</v>
+      </c>
+      <c r="L4" s="33">
+        <v>1</v>
+      </c>
+      <c r="M4" s="33">
+        <v>1</v>
+      </c>
+      <c r="N4" s="33">
+        <v>1</v>
+      </c>
+      <c r="O4" s="16"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
@@ -1380,8 +1394,8 @@
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
       <c r="AC4">
         <v>1</v>
       </c>
@@ -1390,14 +1404,14 @@
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="30" t="s">
-        <v>126</v>
+      <c r="B5" s="26" t="s">
+        <v>119</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>43</v>
+        <v>118</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="E5" s="3">
         <v>22</v>
@@ -1417,7 +1431,7 @@
         <v>21</v>
       </c>
       <c r="N5" s="1"/>
-      <c r="O5" s="20">
+      <c r="O5" s="16">
         <v>30</v>
       </c>
       <c r="P5" s="1"/>
@@ -1428,11 +1442,11 @@
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
-      <c r="X5" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y5" s="32" t="s">
-        <v>45</v>
+      <c r="X5" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y5" s="28" t="s">
+        <v>38</v>
       </c>
       <c r="AC5">
         <v>1</v>
@@ -1443,13 +1457,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>47</v>
+        <v>39</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="1"/>
@@ -1463,7 +1477,7 @@
         <v>11</v>
       </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="20">
+      <c r="O6" s="16">
         <v>60</v>
       </c>
       <c r="P6" s="1"/>
@@ -1474,8 +1488,8 @@
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="11"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
       <c r="AC6">
         <v>1</v>
       </c>
@@ -1485,13 +1499,13 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>50</v>
+        <v>42</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="1"/>
@@ -1509,32 +1523,32 @@
         <v>11</v>
       </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="20">
+      <c r="O7" s="16">
         <v>40</v>
       </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
-      <c r="S7" s="21">
+      <c r="S7" s="17">
         <v>1610</v>
       </c>
-      <c r="T7" s="21">
+      <c r="T7" s="17">
         <v>5000</v>
       </c>
-      <c r="U7" s="21">
+      <c r="U7" s="17">
         <v>200</v>
       </c>
-      <c r="V7" s="21">
+      <c r="V7" s="17">
         <v>200</v>
       </c>
-      <c r="W7" s="21">
+      <c r="W7" s="17">
         <v>8</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="AC7">
         <v>1</v>
@@ -1545,13 +1559,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>55</v>
+        <v>47</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="1"/>
@@ -1569,7 +1583,7 @@
         <v>11</v>
       </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="20">
+      <c r="O8" s="16">
         <v>5</v>
       </c>
       <c r="P8" s="1"/>
@@ -1580,8 +1594,8 @@
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="11"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
       <c r="AC8">
         <v>1</v>
       </c>
@@ -1591,13 +1605,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>49</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>56</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="1"/>
@@ -1615,32 +1629,32 @@
         <v>11</v>
       </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="20">
+      <c r="O9" s="16">
         <v>40</v>
       </c>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
-      <c r="S9" s="21">
+      <c r="S9" s="17">
         <v>1610</v>
       </c>
-      <c r="T9" s="21">
+      <c r="T9" s="17">
         <v>5000</v>
       </c>
-      <c r="U9" s="21">
+      <c r="U9" s="17">
         <v>200</v>
       </c>
-      <c r="V9" s="21">
+      <c r="V9" s="17">
         <v>200</v>
       </c>
-      <c r="W9" s="21">
+      <c r="W9" s="17">
         <v>8</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="AC9">
         <v>1</v>
@@ -1651,13 +1665,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>55</v>
+        <v>47</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="1"/>
@@ -1675,7 +1689,7 @@
         <v>11</v>
       </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="20">
+      <c r="O10" s="16">
         <v>5</v>
       </c>
       <c r="P10" s="1"/>
@@ -1686,8 +1700,8 @@
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
-      <c r="X10" s="11"/>
-      <c r="Y10" s="11"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
       <c r="AC10">
         <v>1</v>
       </c>
@@ -1697,13 +1711,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>59</v>
+        <v>42</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="1"/>
@@ -1721,32 +1735,32 @@
         <v>11</v>
       </c>
       <c r="N11" s="1"/>
-      <c r="O11" s="20">
+      <c r="O11" s="16">
         <v>40</v>
       </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
-      <c r="S11" s="21">
+      <c r="S11" s="17">
         <v>1610</v>
       </c>
-      <c r="T11" s="21">
+      <c r="T11" s="17">
         <v>5000</v>
       </c>
-      <c r="U11" s="21">
+      <c r="U11" s="17">
         <v>200</v>
       </c>
-      <c r="V11" s="21">
+      <c r="V11" s="17">
         <v>200</v>
       </c>
-      <c r="W11" s="21">
+      <c r="W11" s="17">
         <v>8</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="AC11">
         <v>1</v>
@@ -1757,17 +1771,17 @@
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>55</v>
+        <v>47</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="14"/>
+      <c r="G12" s="11"/>
       <c r="H12" s="1">
         <v>11</v>
       </c>
@@ -1781,7 +1795,7 @@
         <v>11</v>
       </c>
       <c r="N12" s="1"/>
-      <c r="O12" s="20">
+      <c r="O12" s="16">
         <v>5</v>
       </c>
       <c r="P12" s="1"/>
@@ -1792,8 +1806,8 @@
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
-      <c r="X12" s="11"/>
-      <c r="Y12" s="11"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8"/>
       <c r="AC12">
         <v>1</v>
       </c>
@@ -1803,13 +1817,13 @@
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>61</v>
+        <v>42</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="1"/>
@@ -1827,32 +1841,32 @@
         <v>11</v>
       </c>
       <c r="N13" s="1"/>
-      <c r="O13" s="20">
+      <c r="O13" s="16">
         <v>40</v>
       </c>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
-      <c r="S13" s="21">
+      <c r="S13" s="17">
         <v>1610</v>
       </c>
-      <c r="T13" s="21">
+      <c r="T13" s="17">
         <v>5000</v>
       </c>
-      <c r="U13" s="21">
+      <c r="U13" s="17">
         <v>200</v>
       </c>
-      <c r="V13" s="21">
+      <c r="V13" s="17">
         <v>200</v>
       </c>
-      <c r="W13" s="21">
+      <c r="W13" s="17">
         <v>8</v>
       </c>
       <c r="X13" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="Y13" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="AC13">
         <v>1</v>
@@ -1863,13 +1877,13 @@
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>55</v>
+        <v>47</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="1"/>
@@ -1887,7 +1901,7 @@
         <v>12</v>
       </c>
       <c r="N14" s="1"/>
-      <c r="O14" s="20">
+      <c r="O14" s="16">
         <v>5</v>
       </c>
       <c r="P14" s="1"/>
@@ -1898,8 +1912,8 @@
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
-      <c r="X14" s="11"/>
-      <c r="Y14" s="11"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
       <c r="AC14">
         <v>1</v>
       </c>
@@ -1909,13 +1923,13 @@
         <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>63</v>
+        <v>55</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="E15" s="3">
         <v>22</v>
@@ -1931,7 +1945,7 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
-      <c r="O15" s="20">
+      <c r="O15" s="16">
         <v>15</v>
       </c>
       <c r="P15" s="1"/>
@@ -1943,10 +1957,10 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
       <c r="X15" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="Y15" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="AC15">
         <v>1</v>
@@ -1956,14 +1970,14 @@
       <c r="A16" s="1">
         <v>12</v>
       </c>
-      <c r="B16" s="30" t="s">
-        <v>131</v>
+      <c r="B16" s="26" t="s">
+        <v>124</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>67</v>
+        <v>59</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>60</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="1"/>
@@ -1979,7 +1993,7 @@
       <c r="N16" s="1">
         <v>21</v>
       </c>
-      <c r="O16" s="20">
+      <c r="O16" s="16">
         <v>15</v>
       </c>
       <c r="P16" s="1"/>
@@ -1990,11 +2004,11 @@
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
-      <c r="X16" s="35" t="s">
-        <v>132</v>
+      <c r="X16" s="31" t="s">
+        <v>125</v>
       </c>
       <c r="Y16" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="AC16">
         <v>1</v>
@@ -2005,13 +2019,13 @@
         <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>71</v>
+        <v>64</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="1"/>
@@ -2027,7 +2041,7 @@
       <c r="N17" s="1">
         <v>11</v>
       </c>
-      <c r="O17" s="20">
+      <c r="O17" s="16">
         <v>20</v>
       </c>
       <c r="P17" s="1"/>
@@ -2038,8 +2052,8 @@
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
-      <c r="X17" s="11"/>
-      <c r="Y17" s="11"/>
+      <c r="X17" s="8"/>
+      <c r="Y17" s="8"/>
       <c r="AC17">
         <v>1</v>
       </c>
@@ -2049,13 +2063,13 @@
         <v>14</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>74</v>
+        <v>66</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>67</v>
       </c>
       <c r="E18" s="3">
         <v>22</v>
@@ -2077,28 +2091,28 @@
       <c r="N18" s="1">
         <v>11</v>
       </c>
-      <c r="O18" s="20">
+      <c r="O18" s="16">
         <v>50</v>
       </c>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
-      <c r="S18" s="21">
+      <c r="S18" s="17">
         <v>300</v>
       </c>
       <c r="T18" s="1"/>
-      <c r="U18" s="21">
+      <c r="U18" s="17">
         <v>300</v>
       </c>
-      <c r="V18" s="21">
+      <c r="V18" s="17">
         <v>300</v>
       </c>
       <c r="W18" s="1"/>
       <c r="X18" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="Y18" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AC18">
         <v>1</v>
@@ -2109,13 +2123,13 @@
         <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>77</v>
+        <v>70</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="1"/>
@@ -2131,7 +2145,7 @@
       <c r="N19" s="1">
         <v>11</v>
       </c>
-      <c r="O19" s="20">
+      <c r="O19" s="16">
         <v>20</v>
       </c>
       <c r="P19" s="1"/>
@@ -2142,8 +2156,8 @@
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
-      <c r="X19" s="11"/>
-      <c r="Y19" s="11"/>
+      <c r="X19" s="8"/>
+      <c r="Y19" s="8"/>
       <c r="AC19">
         <v>1</v>
       </c>
@@ -2153,13 +2167,13 @@
         <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>78</v>
+        <v>59</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>71</v>
       </c>
       <c r="E20" s="3">
         <v>21</v>
@@ -2177,7 +2191,7 @@
       <c r="N20" s="1">
         <v>11</v>
       </c>
-      <c r="O20" s="20">
+      <c r="O20" s="16">
         <v>15</v>
       </c>
       <c r="P20" s="1"/>
@@ -2189,10 +2203,10 @@
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
       <c r="X20" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y20" s="33" t="s">
-        <v>68</v>
+        <v>62</v>
+      </c>
+      <c r="Y20" s="29" t="s">
+        <v>61</v>
       </c>
       <c r="AC20">
         <v>1</v>
@@ -2203,13 +2217,13 @@
         <v>17</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>79</v>
+        <v>59</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>72</v>
       </c>
       <c r="E21" s="3">
         <v>12</v>
@@ -2227,7 +2241,7 @@
       <c r="N21" s="1">
         <v>11</v>
       </c>
-      <c r="O21" s="20">
+      <c r="O21" s="16">
         <v>15</v>
       </c>
       <c r="P21" s="1"/>
@@ -2238,11 +2252,11 @@
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
-      <c r="X21" s="33" t="s">
-        <v>68</v>
+      <c r="X21" s="29" t="s">
+        <v>61</v>
       </c>
       <c r="Y21" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="AC21">
         <v>1</v>
@@ -2253,13 +2267,13 @@
         <v>18</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>71</v>
+        <v>64</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="1"/>
@@ -2275,7 +2289,7 @@
       <c r="N22" s="1">
         <v>11</v>
       </c>
-      <c r="O22" s="20">
+      <c r="O22" s="16">
         <v>20</v>
       </c>
       <c r="P22" s="1"/>
@@ -2286,8 +2300,8 @@
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
-      <c r="X22" s="11"/>
-      <c r="Y22" s="11"/>
+      <c r="X22" s="8"/>
+      <c r="Y22" s="8"/>
       <c r="AC22">
         <v>1</v>
       </c>
@@ -2297,13 +2311,13 @@
         <v>19</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="8" t="s">
         <v>73</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>80</v>
       </c>
       <c r="E23" s="3">
         <v>22</v>
@@ -2325,28 +2339,28 @@
       <c r="N23" s="1">
         <v>11</v>
       </c>
-      <c r="O23" s="20">
+      <c r="O23" s="16">
         <v>50</v>
       </c>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
-      <c r="S23" s="21">
+      <c r="S23" s="17">
         <v>300</v>
       </c>
       <c r="T23" s="1"/>
-      <c r="U23" s="21">
+      <c r="U23" s="17">
         <v>300</v>
       </c>
-      <c r="V23" s="21">
+      <c r="V23" s="17">
         <v>300</v>
       </c>
       <c r="W23" s="1"/>
       <c r="X23" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="Y23" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AC23">
         <v>1</v>
@@ -2357,13 +2371,13 @@
         <v>20</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>77</v>
+        <v>70</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="1"/>
@@ -2379,7 +2393,7 @@
       <c r="N24" s="1">
         <v>11</v>
       </c>
-      <c r="O24" s="20">
+      <c r="O24" s="16">
         <v>20</v>
       </c>
       <c r="P24" s="1"/>
@@ -2390,8 +2404,8 @@
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
-      <c r="X24" s="11"/>
-      <c r="Y24" s="11"/>
+      <c r="X24" s="8"/>
+      <c r="Y24" s="8"/>
       <c r="AC24">
         <v>1</v>
       </c>
@@ -2401,13 +2415,13 @@
         <v>21</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>81</v>
+        <v>59</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>74</v>
       </c>
       <c r="E25" s="3">
         <v>21</v>
@@ -2425,7 +2439,7 @@
       <c r="N25" s="1">
         <v>11</v>
       </c>
-      <c r="O25" s="20">
+      <c r="O25" s="16">
         <v>15</v>
       </c>
       <c r="P25" s="1"/>
@@ -2437,10 +2451,10 @@
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
       <c r="X25" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y25" s="33" t="s">
-        <v>68</v>
+        <v>62</v>
+      </c>
+      <c r="Y25" s="29" t="s">
+        <v>61</v>
       </c>
       <c r="AC25">
         <v>1</v>
@@ -2451,13 +2465,13 @@
         <v>22</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>82</v>
+        <v>59</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="E26" s="3">
         <v>12</v>
@@ -2475,7 +2489,7 @@
       <c r="N26" s="1">
         <v>11</v>
       </c>
-      <c r="O26" s="20">
+      <c r="O26" s="16">
         <v>15</v>
       </c>
       <c r="P26" s="1"/>
@@ -2486,11 +2500,11 @@
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
-      <c r="X26" s="33" t="s">
-        <v>68</v>
+      <c r="X26" s="29" t="s">
+        <v>61</v>
       </c>
       <c r="Y26" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="AC26">
         <v>1</v>
@@ -2501,13 +2515,13 @@
         <v>23</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>71</v>
+        <v>64</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="1"/>
@@ -2523,7 +2537,7 @@
       <c r="N27" s="1">
         <v>11</v>
       </c>
-      <c r="O27" s="20">
+      <c r="O27" s="16">
         <v>20</v>
       </c>
       <c r="P27" s="1"/>
@@ -2534,8 +2548,8 @@
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
-      <c r="X27" s="11"/>
-      <c r="Y27" s="11"/>
+      <c r="X27" s="8"/>
+      <c r="Y27" s="8"/>
       <c r="AC27">
         <v>1</v>
       </c>
@@ -2545,13 +2559,13 @@
         <v>24</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>83</v>
+        <v>66</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="E28" s="3">
         <v>22</v>
@@ -2573,28 +2587,28 @@
       <c r="N28" s="1">
         <v>11</v>
       </c>
-      <c r="O28" s="20">
+      <c r="O28" s="16">
         <v>50</v>
       </c>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
-      <c r="S28" s="21">
+      <c r="S28" s="17">
         <v>300</v>
       </c>
       <c r="T28" s="1"/>
-      <c r="U28" s="21">
+      <c r="U28" s="17">
         <v>300</v>
       </c>
-      <c r="V28" s="21">
+      <c r="V28" s="17">
         <v>300</v>
       </c>
       <c r="W28" s="1"/>
       <c r="X28" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="Y28" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AC28">
         <v>1</v>
@@ -2605,13 +2619,13 @@
         <v>25</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>77</v>
+        <v>70</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="1"/>
@@ -2627,7 +2641,7 @@
       <c r="N29" s="1">
         <v>11</v>
       </c>
-      <c r="O29" s="20">
+      <c r="O29" s="16">
         <v>20</v>
       </c>
       <c r="P29" s="1"/>
@@ -2638,8 +2652,8 @@
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
-      <c r="X29" s="11"/>
-      <c r="Y29" s="11"/>
+      <c r="X29" s="8"/>
+      <c r="Y29" s="8"/>
       <c r="AC29">
         <v>1</v>
       </c>
@@ -2649,13 +2663,13 @@
         <v>26</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>84</v>
+        <v>59</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>77</v>
       </c>
       <c r="E30" s="3">
         <v>21</v>
@@ -2673,7 +2687,7 @@
       <c r="N30" s="1">
         <v>11</v>
       </c>
-      <c r="O30" s="20">
+      <c r="O30" s="16">
         <v>15</v>
       </c>
       <c r="P30" s="1"/>
@@ -2685,10 +2699,10 @@
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
       <c r="X30" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y30" s="33" t="s">
-        <v>68</v>
+        <v>62</v>
+      </c>
+      <c r="Y30" s="29" t="s">
+        <v>61</v>
       </c>
       <c r="AC30">
         <v>1</v>
@@ -2699,13 +2713,13 @@
         <v>27</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>85</v>
+        <v>59</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>78</v>
       </c>
       <c r="E31" s="3">
         <v>12</v>
@@ -2723,7 +2737,7 @@
       <c r="N31" s="1">
         <v>11</v>
       </c>
-      <c r="O31" s="20">
+      <c r="O31" s="16">
         <v>15</v>
       </c>
       <c r="P31" s="1"/>
@@ -2734,11 +2748,11 @@
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
-      <c r="X31" s="33" t="s">
-        <v>68</v>
+      <c r="X31" s="29" t="s">
+        <v>61</v>
       </c>
       <c r="Y31" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="AC31">
         <v>1</v>
@@ -2749,13 +2763,13 @@
         <v>28</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D32" s="31" t="s">
-        <v>128</v>
+        <v>64</v>
+      </c>
+      <c r="D32" s="27" t="s">
+        <v>121</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="1"/>
@@ -2771,7 +2785,7 @@
       <c r="N32" s="1">
         <v>11</v>
       </c>
-      <c r="O32" s="20">
+      <c r="O32" s="16">
         <v>20</v>
       </c>
       <c r="P32" s="1"/>
@@ -2782,8 +2796,8 @@
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
-      <c r="X32" s="11"/>
-      <c r="Y32" s="11"/>
+      <c r="X32" s="8"/>
+      <c r="Y32" s="8"/>
       <c r="AC32">
         <v>1</v>
       </c>
@@ -2793,13 +2807,13 @@
         <v>29</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D33" s="31" t="s">
-        <v>127</v>
+        <v>66</v>
+      </c>
+      <c r="D33" s="27" t="s">
+        <v>120</v>
       </c>
       <c r="E33" s="3">
         <v>22</v>
@@ -2821,28 +2835,28 @@
       <c r="N33" s="1">
         <v>11</v>
       </c>
-      <c r="O33" s="20">
+      <c r="O33" s="16">
         <v>50</v>
       </c>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
-      <c r="S33" s="21">
+      <c r="S33" s="17">
         <v>300</v>
       </c>
       <c r="T33" s="1"/>
-      <c r="U33" s="21">
+      <c r="U33" s="17">
         <v>300</v>
       </c>
-      <c r="V33" s="21">
+      <c r="V33" s="17">
         <v>300</v>
       </c>
       <c r="W33" s="1"/>
       <c r="X33" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="Y33" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AC33">
         <v>1</v>
@@ -2853,13 +2867,13 @@
         <v>30</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>77</v>
+        <v>70</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="1"/>
@@ -2875,7 +2889,7 @@
       <c r="N34" s="1">
         <v>11</v>
       </c>
-      <c r="O34" s="20">
+      <c r="O34" s="16">
         <v>20</v>
       </c>
       <c r="P34" s="1"/>
@@ -2886,8 +2900,8 @@
       <c r="U34" s="1"/>
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
-      <c r="X34" s="11"/>
-      <c r="Y34" s="11"/>
+      <c r="X34" s="8"/>
+      <c r="Y34" s="8"/>
       <c r="AC34">
         <v>1</v>
       </c>
@@ -2897,13 +2911,13 @@
         <v>31</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>86</v>
+        <v>59</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>79</v>
       </c>
       <c r="E35" s="3">
         <v>21</v>
@@ -2921,7 +2935,7 @@
       <c r="N35" s="1">
         <v>11</v>
       </c>
-      <c r="O35" s="20">
+      <c r="O35" s="16">
         <v>15</v>
       </c>
       <c r="P35" s="1"/>
@@ -2933,10 +2947,10 @@
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
       <c r="X35" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y35" s="33" t="s">
-        <v>68</v>
+        <v>62</v>
+      </c>
+      <c r="Y35" s="29" t="s">
+        <v>61</v>
       </c>
       <c r="AC35">
         <v>1</v>
@@ -2947,13 +2961,13 @@
         <v>32</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>87</v>
+        <v>59</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>80</v>
       </c>
       <c r="E36" s="3">
         <v>12</v>
@@ -2971,7 +2985,7 @@
       <c r="N36" s="1">
         <v>11</v>
       </c>
-      <c r="O36" s="20">
+      <c r="O36" s="16">
         <v>15</v>
       </c>
       <c r="P36" s="1"/>
@@ -2982,11 +2996,11 @@
       <c r="U36" s="1"/>
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
-      <c r="X36" s="33" t="s">
-        <v>68</v>
+      <c r="X36" s="29" t="s">
+        <v>61</v>
       </c>
       <c r="Y36" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="AC36">
         <v>1</v>
@@ -2997,13 +3011,13 @@
         <v>33</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>71</v>
+        <v>64</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="1"/>
@@ -3019,7 +3033,7 @@
       <c r="N37" s="1">
         <v>11</v>
       </c>
-      <c r="O37" s="20">
+      <c r="O37" s="16">
         <v>20</v>
       </c>
       <c r="P37" s="1"/>
@@ -3030,8 +3044,8 @@
       <c r="U37" s="1"/>
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
-      <c r="X37" s="11"/>
-      <c r="Y37" s="11"/>
+      <c r="X37" s="8"/>
+      <c r="Y37" s="8"/>
       <c r="AC37">
         <v>1</v>
       </c>
@@ -3041,13 +3055,13 @@
         <v>34</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>88</v>
+        <v>66</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="E38" s="3">
         <v>22</v>
@@ -3069,28 +3083,28 @@
       <c r="N38" s="1">
         <v>11</v>
       </c>
-      <c r="O38" s="20">
+      <c r="O38" s="16">
         <v>50</v>
       </c>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
-      <c r="S38" s="21">
+      <c r="S38" s="17">
         <v>300</v>
       </c>
       <c r="T38" s="1"/>
-      <c r="U38" s="21">
+      <c r="U38" s="17">
         <v>300</v>
       </c>
-      <c r="V38" s="21">
+      <c r="V38" s="17">
         <v>300</v>
       </c>
       <c r="W38" s="1"/>
       <c r="X38" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="Y38" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AC38">
         <v>1</v>
@@ -3101,13 +3115,13 @@
         <v>35</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>77</v>
+        <v>70</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="1"/>
@@ -3123,7 +3137,7 @@
       <c r="N39" s="1">
         <v>11</v>
       </c>
-      <c r="O39" s="20">
+      <c r="O39" s="16">
         <v>20</v>
       </c>
       <c r="P39" s="1"/>
@@ -3134,8 +3148,8 @@
       <c r="U39" s="1"/>
       <c r="V39" s="1"/>
       <c r="W39" s="1"/>
-      <c r="X39" s="11"/>
-      <c r="Y39" s="11"/>
+      <c r="X39" s="8"/>
+      <c r="Y39" s="8"/>
       <c r="AC39">
         <v>1</v>
       </c>
@@ -3145,13 +3159,13 @@
         <v>36</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>89</v>
+        <v>59</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="E40" s="3">
         <v>21</v>
@@ -3169,7 +3183,7 @@
       <c r="N40" s="1">
         <v>11</v>
       </c>
-      <c r="O40" s="20">
+      <c r="O40" s="16">
         <v>15</v>
       </c>
       <c r="P40" s="1"/>
@@ -3181,10 +3195,10 @@
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
       <c r="X40" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y40" s="33" t="s">
-        <v>68</v>
+        <v>62</v>
+      </c>
+      <c r="Y40" s="29" t="s">
+        <v>61</v>
       </c>
       <c r="AC40">
         <v>1</v>
@@ -3195,13 +3209,13 @@
         <v>37</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>90</v>
+        <v>59</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="E41" s="3">
         <v>12</v>
@@ -3219,7 +3233,7 @@
       <c r="N41" s="1">
         <v>11</v>
       </c>
-      <c r="O41" s="20">
+      <c r="O41" s="16">
         <v>15</v>
       </c>
       <c r="P41" s="1"/>
@@ -3230,11 +3244,11 @@
       <c r="U41" s="1"/>
       <c r="V41" s="1"/>
       <c r="W41" s="1"/>
-      <c r="X41" s="33" t="s">
-        <v>68</v>
+      <c r="X41" s="29" t="s">
+        <v>61</v>
       </c>
       <c r="Y41" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="AC41">
         <v>1</v>
@@ -3245,13 +3259,13 @@
         <v>38</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>71</v>
+        <v>64</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="1"/>
@@ -3267,7 +3281,7 @@
       <c r="N42" s="1">
         <v>11</v>
       </c>
-      <c r="O42" s="20">
+      <c r="O42" s="16">
         <v>20</v>
       </c>
       <c r="P42" s="1"/>
@@ -3278,8 +3292,8 @@
       <c r="U42" s="1"/>
       <c r="V42" s="1"/>
       <c r="W42" s="1"/>
-      <c r="X42" s="11"/>
-      <c r="Y42" s="11"/>
+      <c r="X42" s="8"/>
+      <c r="Y42" s="8"/>
       <c r="AC42">
         <v>1</v>
       </c>
@@ -3289,13 +3303,13 @@
         <v>39</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>91</v>
+        <v>66</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="E43" s="3">
         <v>22</v>
@@ -3317,28 +3331,28 @@
       <c r="N43" s="1">
         <v>11</v>
       </c>
-      <c r="O43" s="20">
+      <c r="O43" s="16">
         <v>50</v>
       </c>
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
-      <c r="S43" s="21">
+      <c r="S43" s="17">
         <v>300</v>
       </c>
       <c r="T43" s="1"/>
-      <c r="U43" s="21">
+      <c r="U43" s="17">
         <v>300</v>
       </c>
-      <c r="V43" s="21">
+      <c r="V43" s="17">
         <v>300</v>
       </c>
       <c r="W43" s="1"/>
       <c r="X43" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="Y43" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AC43">
         <v>1</v>
@@ -3349,13 +3363,13 @@
         <v>40</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>77</v>
+        <v>70</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="1"/>
@@ -3371,7 +3385,7 @@
       <c r="N44" s="1">
         <v>11</v>
       </c>
-      <c r="O44" s="20">
+      <c r="O44" s="16">
         <v>20</v>
       </c>
       <c r="P44" s="1"/>
@@ -3382,8 +3396,8 @@
       <c r="U44" s="1"/>
       <c r="V44" s="1"/>
       <c r="W44" s="1"/>
-      <c r="X44" s="11"/>
-      <c r="Y44" s="11"/>
+      <c r="X44" s="8"/>
+      <c r="Y44" s="8"/>
       <c r="AC44">
         <v>1</v>
       </c>
@@ -3393,13 +3407,13 @@
         <v>41</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>92</v>
+        <v>59</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>85</v>
       </c>
       <c r="E45" s="3">
         <v>21</v>
@@ -3417,7 +3431,7 @@
       <c r="N45" s="1">
         <v>11</v>
       </c>
-      <c r="O45" s="20">
+      <c r="O45" s="16">
         <v>15</v>
       </c>
       <c r="P45" s="1"/>
@@ -3429,10 +3443,10 @@
       <c r="V45" s="1"/>
       <c r="W45" s="1"/>
       <c r="X45" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y45" s="33" t="s">
-        <v>68</v>
+        <v>62</v>
+      </c>
+      <c r="Y45" s="29" t="s">
+        <v>61</v>
       </c>
       <c r="AC45">
         <v>1</v>
@@ -3443,13 +3457,13 @@
         <v>42</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D46" s="13" t="s">
-        <v>93</v>
+        <v>59</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>86</v>
       </c>
       <c r="E46" s="3">
         <v>12</v>
@@ -3467,7 +3481,7 @@
       <c r="N46" s="1">
         <v>11</v>
       </c>
-      <c r="O46" s="20">
+      <c r="O46" s="16">
         <v>15</v>
       </c>
       <c r="P46" s="1"/>
@@ -3478,11 +3492,11 @@
       <c r="U46" s="1"/>
       <c r="V46" s="1"/>
       <c r="W46" s="1"/>
-      <c r="X46" s="33" t="s">
-        <v>68</v>
+      <c r="X46" s="29" t="s">
+        <v>61</v>
       </c>
       <c r="Y46" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="AC46">
         <v>1</v>
@@ -3493,13 +3507,13 @@
         <v>43</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D47" s="11" t="s">
-        <v>71</v>
+        <v>64</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="1"/>
@@ -3515,7 +3529,7 @@
       <c r="N47" s="1">
         <v>11</v>
       </c>
-      <c r="O47" s="20">
+      <c r="O47" s="16">
         <v>20</v>
       </c>
       <c r="P47" s="1"/>
@@ -3526,8 +3540,8 @@
       <c r="U47" s="1"/>
       <c r="V47" s="1"/>
       <c r="W47" s="1"/>
-      <c r="X47" s="11"/>
-      <c r="Y47" s="11"/>
+      <c r="X47" s="8"/>
+      <c r="Y47" s="8"/>
       <c r="AC47">
         <v>1</v>
       </c>
@@ -3537,13 +3551,13 @@
         <v>44</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>94</v>
+        <v>66</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>87</v>
       </c>
       <c r="E48" s="3">
         <v>22</v>
@@ -3565,28 +3579,28 @@
       <c r="N48" s="1">
         <v>11</v>
       </c>
-      <c r="O48" s="20">
+      <c r="O48" s="16">
         <v>50</v>
       </c>
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
       <c r="R48" s="1"/>
-      <c r="S48" s="21">
+      <c r="S48" s="17">
         <v>300</v>
       </c>
       <c r="T48" s="1"/>
-      <c r="U48" s="21">
+      <c r="U48" s="17">
         <v>300</v>
       </c>
-      <c r="V48" s="21">
+      <c r="V48" s="17">
         <v>300</v>
       </c>
       <c r="W48" s="1"/>
       <c r="X48" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="Y48" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AC48">
         <v>1</v>
@@ -3597,13 +3611,13 @@
         <v>45</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D49" s="11" t="s">
-        <v>77</v>
+        <v>70</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="1"/>
@@ -3619,7 +3633,7 @@
       <c r="N49" s="1">
         <v>11</v>
       </c>
-      <c r="O49" s="20">
+      <c r="O49" s="16">
         <v>20</v>
       </c>
       <c r="P49" s="1"/>
@@ -3630,8 +3644,8 @@
       <c r="U49" s="1"/>
       <c r="V49" s="1"/>
       <c r="W49" s="1"/>
-      <c r="X49" s="11"/>
-      <c r="Y49" s="11"/>
+      <c r="X49" s="8"/>
+      <c r="Y49" s="8"/>
       <c r="AC49">
         <v>1</v>
       </c>
@@ -3641,13 +3655,13 @@
         <v>46</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D50" s="11" t="s">
-        <v>95</v>
+        <v>59</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="E50" s="3">
         <v>21</v>
@@ -3665,7 +3679,7 @@
       <c r="N50" s="1">
         <v>11</v>
       </c>
-      <c r="O50" s="20">
+      <c r="O50" s="16">
         <v>15</v>
       </c>
       <c r="P50" s="1"/>
@@ -3677,10 +3691,10 @@
       <c r="V50" s="1"/>
       <c r="W50" s="1"/>
       <c r="X50" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y50" s="33" t="s">
-        <v>68</v>
+        <v>62</v>
+      </c>
+      <c r="Y50" s="29" t="s">
+        <v>61</v>
       </c>
       <c r="AC50">
         <v>1</v>
@@ -3691,15 +3705,15 @@
         <v>47</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D51" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="E51" s="37">
+        <v>59</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E51" s="32">
         <v>12</v>
       </c>
       <c r="F51" s="1"/>
@@ -3715,7 +3729,7 @@
       <c r="N51" s="1">
         <v>11</v>
       </c>
-      <c r="O51" s="20">
+      <c r="O51" s="16">
         <v>15</v>
       </c>
       <c r="P51" s="1"/>
@@ -3726,11 +3740,11 @@
       <c r="U51" s="1"/>
       <c r="V51" s="1"/>
       <c r="W51" s="1"/>
-      <c r="X51" s="33" t="s">
-        <v>68</v>
+      <c r="X51" s="29" t="s">
+        <v>61</v>
       </c>
       <c r="Y51" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="AC51">
         <v>1</v>
@@ -3741,13 +3755,13 @@
         <v>48</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D52" s="11" t="s">
-        <v>71</v>
+        <v>64</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="1"/>
@@ -3763,7 +3777,7 @@
       <c r="N52" s="1">
         <v>11</v>
       </c>
-      <c r="O52" s="20">
+      <c r="O52" s="16">
         <v>20</v>
       </c>
       <c r="P52" s="1"/>
@@ -3774,8 +3788,8 @@
       <c r="U52" s="1"/>
       <c r="V52" s="1"/>
       <c r="W52" s="1"/>
-      <c r="X52" s="11"/>
-      <c r="Y52" s="11"/>
+      <c r="X52" s="8"/>
+      <c r="Y52" s="8"/>
       <c r="AC52">
         <v>1</v>
       </c>
@@ -3785,13 +3799,13 @@
         <v>49</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D53" s="11" t="s">
-        <v>97</v>
+        <v>66</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="E53" s="3">
         <v>22</v>
@@ -3813,28 +3827,28 @@
       <c r="N53" s="1">
         <v>11</v>
       </c>
-      <c r="O53" s="20">
+      <c r="O53" s="16">
         <v>50</v>
       </c>
       <c r="P53" s="1"/>
       <c r="Q53" s="1"/>
       <c r="R53" s="1"/>
-      <c r="S53" s="21">
+      <c r="S53" s="17">
         <v>300</v>
       </c>
       <c r="T53" s="1"/>
-      <c r="U53" s="21">
+      <c r="U53" s="17">
         <v>300</v>
       </c>
-      <c r="V53" s="21">
+      <c r="V53" s="17">
         <v>300</v>
       </c>
       <c r="W53" s="1"/>
       <c r="X53" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="Y53" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AC53">
         <v>1</v>
@@ -3845,13 +3859,13 @@
         <v>50</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D54" s="11" t="s">
-        <v>77</v>
+        <v>70</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="1"/>
@@ -3867,7 +3881,7 @@
       <c r="N54" s="1">
         <v>11</v>
       </c>
-      <c r="O54" s="20">
+      <c r="O54" s="16">
         <v>20</v>
       </c>
       <c r="P54" s="1"/>
@@ -3878,8 +3892,8 @@
       <c r="U54" s="1"/>
       <c r="V54" s="1"/>
       <c r="W54" s="1"/>
-      <c r="X54" s="11"/>
-      <c r="Y54" s="11"/>
+      <c r="X54" s="8"/>
+      <c r="Y54" s="8"/>
       <c r="AC54">
         <v>1</v>
       </c>
@@ -3889,13 +3903,13 @@
         <v>51</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D55" s="11" t="s">
-        <v>98</v>
+        <v>59</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="E55" s="3">
         <v>21</v>
@@ -3913,7 +3927,7 @@
       <c r="N55" s="1">
         <v>12</v>
       </c>
-      <c r="O55" s="20">
+      <c r="O55" s="16">
         <v>15</v>
       </c>
       <c r="P55" s="1"/>
@@ -3925,10 +3939,10 @@
       <c r="V55" s="1"/>
       <c r="W55" s="1"/>
       <c r="X55" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y55" s="33" t="s">
-        <v>68</v>
+        <v>62</v>
+      </c>
+      <c r="Y55" s="29" t="s">
+        <v>61</v>
       </c>
       <c r="AC55">
         <v>1</v>
@@ -3939,13 +3953,13 @@
         <v>52</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D56" s="11" t="s">
-        <v>63</v>
+        <v>55</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="E56" s="3">
         <v>12</v>
@@ -3965,7 +3979,7 @@
       </c>
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
-      <c r="O56" s="20">
+      <c r="O56" s="16">
         <v>15</v>
       </c>
       <c r="P56" s="1"/>
@@ -3977,60 +3991,60 @@
       <c r="V56" s="1"/>
       <c r="W56" s="1"/>
       <c r="X56" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="Y56" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="AC56">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:29" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A57" s="25">
+    <row r="57" spans="1:29" s="25" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A57" s="21">
         <v>53</v>
       </c>
-      <c r="B57" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="C57" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="D57" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="E57" s="27"/>
-      <c r="F57" s="25"/>
-      <c r="G57" s="25"/>
-      <c r="H57" s="25"/>
-      <c r="I57" s="25">
-        <v>11</v>
-      </c>
-      <c r="J57" s="25"/>
-      <c r="K57" s="25"/>
-      <c r="L57" s="25"/>
-      <c r="M57" s="25"/>
-      <c r="N57" s="25"/>
-      <c r="O57" s="28">
+      <c r="B57" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="C57" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="D57" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="E57" s="23"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="21"/>
+      <c r="H57" s="21"/>
+      <c r="I57" s="21">
+        <v>11</v>
+      </c>
+      <c r="J57" s="21"/>
+      <c r="K57" s="21"/>
+      <c r="L57" s="21"/>
+      <c r="M57" s="21"/>
+      <c r="N57" s="21"/>
+      <c r="O57" s="24">
         <v>660</v>
       </c>
-      <c r="P57" s="25">
+      <c r="P57" s="21">
         <v>600</v>
       </c>
-      <c r="Q57" s="25">
+      <c r="Q57" s="21">
         <v>60</v>
       </c>
-      <c r="R57" s="25">
+      <c r="R57" s="21">
         <v>45</v>
       </c>
-      <c r="S57" s="25"/>
-      <c r="T57" s="25"/>
-      <c r="U57" s="25"/>
-      <c r="V57" s="25"/>
-      <c r="W57" s="25"/>
-      <c r="X57" s="26"/>
-      <c r="Y57" s="26"/>
-      <c r="AC57" s="29">
+      <c r="S57" s="21"/>
+      <c r="T57" s="21"/>
+      <c r="U57" s="21"/>
+      <c r="V57" s="21"/>
+      <c r="W57" s="21"/>
+      <c r="X57" s="22"/>
+      <c r="Y57" s="22"/>
+      <c r="AC57" s="25">
         <v>1</v>
       </c>
     </row>
@@ -4039,13 +4053,13 @@
         <v>54</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D58" s="11" t="s">
-        <v>105</v>
+        <v>97</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="1">
@@ -4063,13 +4077,13 @@
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
-      <c r="O58" s="20">
+      <c r="O58" s="16">
         <v>60</v>
       </c>
       <c r="P58" s="1"/>
       <c r="Q58" s="1"/>
       <c r="R58" s="1"/>
-      <c r="S58" s="21">
+      <c r="S58" s="17">
         <v>780</v>
       </c>
       <c r="T58" s="1"/>
@@ -4077,9 +4091,9 @@
       <c r="V58" s="1"/>
       <c r="W58" s="1"/>
       <c r="X58" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="Y58" s="11"/>
+        <v>99</v>
+      </c>
+      <c r="Y58" s="8"/>
       <c r="AC58">
         <v>1</v>
       </c>
@@ -4089,13 +4103,13 @@
         <v>55</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D59" s="11" t="s">
-        <v>109</v>
+        <v>101</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>102</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="1">
@@ -4113,32 +4127,32 @@
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
-      <c r="O59" s="20">
+      <c r="O59" s="16">
         <v>180</v>
       </c>
-      <c r="P59" s="21">
+      <c r="P59" s="17">
         <v>60</v>
       </c>
-      <c r="Q59" s="21">
+      <c r="Q59" s="17">
         <v>60</v>
       </c>
-      <c r="R59" s="22"/>
-      <c r="S59" s="21">
+      <c r="R59" s="18"/>
+      <c r="S59" s="17">
         <v>750</v>
       </c>
       <c r="T59" s="1"/>
-      <c r="U59" s="21">
+      <c r="U59" s="17">
         <v>750</v>
       </c>
-      <c r="V59" s="21">
+      <c r="V59" s="17">
         <v>750</v>
       </c>
       <c r="W59" s="1"/>
       <c r="X59" s="1" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="Y59" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="AC59">
         <v>1</v>
@@ -4149,13 +4163,13 @@
         <v>56</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D60" s="11" t="s">
-        <v>111</v>
+        <v>101</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>104</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="1">
@@ -4173,76 +4187,76 @@
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
-      <c r="O60" s="20">
+      <c r="O60" s="16">
         <v>180</v>
       </c>
-      <c r="P60" s="21">
+      <c r="P60" s="17">
         <v>60</v>
       </c>
-      <c r="Q60" s="21">
+      <c r="Q60" s="17">
         <v>60</v>
       </c>
-      <c r="R60" s="22"/>
-      <c r="S60" s="21">
+      <c r="R60" s="18"/>
+      <c r="S60" s="17">
         <v>750</v>
       </c>
       <c r="T60" s="1"/>
-      <c r="U60" s="21">
+      <c r="U60" s="17">
         <v>750</v>
       </c>
-      <c r="V60" s="21">
+      <c r="V60" s="17">
         <v>750</v>
       </c>
       <c r="W60" s="1"/>
       <c r="X60" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="Y60" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29" s="25" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A61" s="21">
+        <v>57</v>
+      </c>
+      <c r="B61" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="AC60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:29" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A61" s="25">
-        <v>57</v>
-      </c>
-      <c r="B61" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="C61" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="D61" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="E61" s="27"/>
-      <c r="F61" s="25"/>
-      <c r="G61" s="25"/>
-      <c r="H61" s="25"/>
-      <c r="I61" s="25">
-        <v>11</v>
-      </c>
-      <c r="J61" s="25"/>
-      <c r="K61" s="25"/>
-      <c r="L61" s="25"/>
-      <c r="M61" s="25"/>
-      <c r="N61" s="25"/>
-      <c r="O61" s="28">
+      <c r="C61" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="D61" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="E61" s="23"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="21"/>
+      <c r="H61" s="21"/>
+      <c r="I61" s="21">
+        <v>11</v>
+      </c>
+      <c r="J61" s="21"/>
+      <c r="K61" s="21"/>
+      <c r="L61" s="21"/>
+      <c r="M61" s="21"/>
+      <c r="N61" s="21"/>
+      <c r="O61" s="24">
         <v>300</v>
       </c>
-      <c r="P61" s="25"/>
-      <c r="Q61" s="25"/>
-      <c r="R61" s="25"/>
-      <c r="S61" s="25"/>
-      <c r="T61" s="25"/>
-      <c r="U61" s="25"/>
-      <c r="V61" s="25"/>
-      <c r="W61" s="25"/>
-      <c r="X61" s="26"/>
-      <c r="Y61" s="26"/>
-      <c r="AC61" s="29">
+      <c r="P61" s="21"/>
+      <c r="Q61" s="21"/>
+      <c r="R61" s="21"/>
+      <c r="S61" s="21"/>
+      <c r="T61" s="21"/>
+      <c r="U61" s="21"/>
+      <c r="V61" s="21"/>
+      <c r="W61" s="21"/>
+      <c r="X61" s="22"/>
+      <c r="Y61" s="22"/>
+      <c r="AC61" s="25">
         <v>1</v>
       </c>
     </row>
@@ -4251,13 +4265,13 @@
         <v>58</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D62" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="1">
@@ -4275,28 +4289,28 @@
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
-      <c r="O62" s="20">
+      <c r="O62" s="16">
         <v>60</v>
       </c>
       <c r="P62" s="1"/>
       <c r="Q62" s="1"/>
       <c r="R62" s="1"/>
-      <c r="S62" s="21">
+      <c r="S62" s="17">
         <v>100</v>
       </c>
       <c r="T62" s="1"/>
-      <c r="U62" s="21">
+      <c r="U62" s="17">
         <v>100</v>
       </c>
-      <c r="V62" s="21">
+      <c r="V62" s="17">
         <v>100</v>
       </c>
       <c r="W62" s="1"/>
       <c r="X62" s="1" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="Y62" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="AC62">
         <v>1</v>
@@ -4307,13 +4321,13 @@
         <v>59</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D63" s="11" t="s">
-        <v>119</v>
+        <v>94</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>112</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="1"/>
@@ -4327,13 +4341,13 @@
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
-      <c r="O63" s="20">
+      <c r="O63" s="16">
         <v>120</v>
       </c>
-      <c r="P63" s="21">
+      <c r="P63" s="17">
         <v>60</v>
       </c>
-      <c r="Q63" s="21">
+      <c r="Q63" s="17">
         <v>60</v>
       </c>
       <c r="R63" s="1"/>
@@ -4342,8 +4356,8 @@
       <c r="U63" s="1"/>
       <c r="V63" s="1"/>
       <c r="W63" s="1"/>
-      <c r="X63" s="11"/>
-      <c r="Y63" s="11"/>
+      <c r="X63" s="8"/>
+      <c r="Y63" s="8"/>
       <c r="AC63">
         <v>1</v>
       </c>
@@ -4353,13 +4367,13 @@
         <v>60</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C64" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="D64" s="11" t="s">
-        <v>120</v>
+        <v>108</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>113</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="1">
@@ -4377,28 +4391,28 @@
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
-      <c r="O64" s="20">
+      <c r="O64" s="16">
         <v>60</v>
       </c>
       <c r="P64" s="1"/>
       <c r="Q64" s="1"/>
       <c r="R64" s="1"/>
-      <c r="S64" s="21">
+      <c r="S64" s="17">
         <v>100</v>
       </c>
       <c r="T64" s="1"/>
-      <c r="U64" s="21">
+      <c r="U64" s="17">
         <v>100</v>
       </c>
-      <c r="V64" s="21">
+      <c r="V64" s="17">
         <v>100</v>
       </c>
       <c r="W64" s="1"/>
       <c r="X64" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="Y64" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="AC64">
         <v>1</v>
@@ -4409,13 +4423,13 @@
         <v>61</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C65" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="D65" s="11" t="s">
-        <v>124</v>
+        <v>115</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>117</v>
       </c>
       <c r="E65" s="3">
         <v>22</v>
@@ -4433,7 +4447,7 @@
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
-      <c r="O65" s="20">
+      <c r="O65" s="16">
         <v>15</v>
       </c>
       <c r="P65" s="1"/>
@@ -4445,15 +4459,15 @@
       <c r="V65" s="1"/>
       <c r="W65" s="1"/>
       <c r="X65" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y65" s="11"/>
+        <v>92</v>
+      </c>
+      <c r="Y65" s="8"/>
       <c r="AC65">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4467,7 +4481,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="25596" windowHeight="10860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
@@ -17,19 +17,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="136">
   <si>
-    <t>#resourceStart</t>
-  </si>
-  <si>
-    <t>#resourceEnd</t>
-  </si>
-  <si>
-    <t>#duration</t>
-  </si>
-  <si>
-    <t>#paramStart</t>
-  </si>
-  <si>
-    <t>paramEnd</t>
+    <t>#ResourceStart</t>
+  </si>
+  <si>
+    <t>#ResourceEnd</t>
+  </si>
+  <si>
+    <t>#Duration</t>
+  </si>
+  <si>
+    <t>#ParamStart</t>
+  </si>
+  <si>
+    <t>#ParamEnd</t>
   </si>
   <si>
     <t>动作名称</t>
@@ -454,7 +454,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="37">
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -538,13 +538,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color theme="5" tint="-0.249977111117893"/>
@@ -590,18 +583,18 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -613,16 +606,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -636,16 +637,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -653,6 +684,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -670,59 +716,6 @@
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -760,18 +753,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -779,18 +760,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -808,7 +777,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -820,13 +921,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -838,109 +933,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -991,21 +984,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1030,6 +1008,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1037,15 +1030,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1065,6 +1049,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1079,15 +1081,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1096,10 +1089,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1108,137 +1101,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1294,58 +1287,55 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1675,8 +1665,8 @@
   <sheetPr/>
   <dimension ref="A1:AC65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="Y21" sqref="Y21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1736,7 +1726,7 @@
       <c r="U1" s="30"/>
       <c r="V1" s="30"/>
       <c r="W1" s="31"/>
-      <c r="X1" s="33"/>
+      <c r="X1" s="18"/>
       <c r="Y1" s="24" t="s">
         <v>4</v>
       </c>
@@ -1812,10 +1802,10 @@
       <c r="W2" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="X2" s="34" t="s">
+      <c r="X2" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="Y2" s="34" t="s">
+      <c r="Y2" s="33" t="s">
         <v>28</v>
       </c>
       <c r="AC2">
@@ -1884,10 +1874,10 @@
       <c r="W3" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="X3" s="34" t="s">
+      <c r="X3" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="Y3" s="34" t="s">
+      <c r="Y3" s="33" t="s">
         <v>48</v>
       </c>
       <c r="AC3">
@@ -1988,10 +1978,10 @@
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
-      <c r="X5" s="35" t="s">
+      <c r="X5" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="Y5" s="35" t="s">
+      <c r="Y5" s="34" t="s">
         <v>54</v>
       </c>
       <c r="AC5">
@@ -2550,7 +2540,7 @@
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
-      <c r="X16" s="36" t="s">
+      <c r="X16" s="35" t="s">
         <v>78</v>
       </c>
       <c r="Y16" s="2" t="s">
@@ -2751,7 +2741,7 @@
       <c r="X20" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="Y20" s="36" t="s">
+      <c r="Y20" s="35" t="s">
         <v>78</v>
       </c>
       <c r="AC20">
@@ -2798,7 +2788,7 @@
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
-      <c r="X21" s="36" t="s">
+      <c r="X21" s="35" t="s">
         <v>78</v>
       </c>
       <c r="Y21" s="2" t="s">
@@ -2999,7 +2989,7 @@
       <c r="X25" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="Y25" s="36" t="s">
+      <c r="Y25" s="35" t="s">
         <v>78</v>
       </c>
       <c r="AC25">
@@ -3046,7 +3036,7 @@
       <c r="U26" s="2"/>
       <c r="V26" s="2"/>
       <c r="W26" s="2"/>
-      <c r="X26" s="36" t="s">
+      <c r="X26" s="35" t="s">
         <v>78</v>
       </c>
       <c r="Y26" s="2" t="s">
@@ -3247,7 +3237,7 @@
       <c r="X30" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="Y30" s="36" t="s">
+      <c r="Y30" s="35" t="s">
         <v>78</v>
       </c>
       <c r="AC30">
@@ -3294,7 +3284,7 @@
       <c r="U31" s="2"/>
       <c r="V31" s="2"/>
       <c r="W31" s="2"/>
-      <c r="X31" s="36" t="s">
+      <c r="X31" s="35" t="s">
         <v>78</v>
       </c>
       <c r="Y31" s="2" t="s">
@@ -3495,7 +3485,7 @@
       <c r="X35" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="Y35" s="36" t="s">
+      <c r="Y35" s="35" t="s">
         <v>78</v>
       </c>
       <c r="AC35">
@@ -3542,7 +3532,7 @@
       <c r="U36" s="2"/>
       <c r="V36" s="2"/>
       <c r="W36" s="2"/>
-      <c r="X36" s="36" t="s">
+      <c r="X36" s="35" t="s">
         <v>78</v>
       </c>
       <c r="Y36" s="2" t="s">
@@ -3743,7 +3733,7 @@
       <c r="X40" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="Y40" s="36" t="s">
+      <c r="Y40" s="35" t="s">
         <v>78</v>
       </c>
       <c r="AC40">
@@ -3790,7 +3780,7 @@
       <c r="U41" s="2"/>
       <c r="V41" s="2"/>
       <c r="W41" s="2"/>
-      <c r="X41" s="36" t="s">
+      <c r="X41" s="35" t="s">
         <v>78</v>
       </c>
       <c r="Y41" s="2" t="s">
@@ -3991,7 +3981,7 @@
       <c r="X45" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="Y45" s="36" t="s">
+      <c r="Y45" s="35" t="s">
         <v>78</v>
       </c>
       <c r="AC45">
@@ -4038,7 +4028,7 @@
       <c r="U46" s="2"/>
       <c r="V46" s="2"/>
       <c r="W46" s="2"/>
-      <c r="X46" s="36" t="s">
+      <c r="X46" s="35" t="s">
         <v>78</v>
       </c>
       <c r="Y46" s="2" t="s">
@@ -4239,7 +4229,7 @@
       <c r="X50" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="Y50" s="36" t="s">
+      <c r="Y50" s="35" t="s">
         <v>78</v>
       </c>
       <c r="AC50">
@@ -4286,7 +4276,7 @@
       <c r="U51" s="2"/>
       <c r="V51" s="2"/>
       <c r="W51" s="2"/>
-      <c r="X51" s="36" t="s">
+      <c r="X51" s="35" t="s">
         <v>78</v>
       </c>
       <c r="Y51" s="2" t="s">
@@ -4487,7 +4477,7 @@
       <c r="X55" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="Y55" s="36" t="s">
+      <c r="Y55" s="35" t="s">
         <v>78</v>
       </c>
       <c r="AC55">
@@ -4682,7 +4672,7 @@
       <c r="Q59" s="29">
         <v>60</v>
       </c>
-      <c r="R59" s="37"/>
+      <c r="R59" s="36"/>
       <c r="S59" s="29">
         <v>750</v>
       </c>
@@ -4742,7 +4732,7 @@
       <c r="Q60" s="29">
         <v>60</v>
       </c>
-      <c r="R60" s="37"/>
+      <c r="R60" s="36"/>
       <c r="S60" s="29">
         <v>750</v>
       </c>
